--- a/Duto Sheets.xlsx
+++ b/Duto Sheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goss\AppData\Roaming\MetaQuotes\Terminal\3212703ED955F10C7534BE8497B221F4\MQL4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58D52E7-A494-4D37-9B82-213E164D3045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357F547A-B574-4D76-B20F-A710ACF8685C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41490" yWindow="-11010" windowWidth="30180" windowHeight="19320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8430" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Punch List" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="291">
   <si>
     <t>Sale Miner</t>
   </si>
@@ -921,6 +921,9 @@
   <si>
     <t>Tony Goss</t>
   </si>
+  <si>
+    <t>Improve the visibility of the deltac.  It is often hidden.</t>
+  </si>
 </sst>
 </file>
 
@@ -928,7 +931,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dmmmyy"/>
-    <numFmt numFmtId="166" formatCode="d\ mmm"/>
+    <numFmt numFmtId="165" formatCode="d\ mmm"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -1034,7 +1037,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1105,6 +1108,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF666666"/>
         <bgColor rgb="FF666666"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1212,7 +1221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1310,7 +1319,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1349,24 +1358,37 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1589,7 +1611,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1774,37 +1796,43 @@
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
     </row>
-    <row r="5" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6"/>
+    <row r="5" spans="1:30" s="74" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="70">
+        <v>1</v>
+      </c>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="71">
+        <v>45453</v>
+      </c>
+      <c r="F5" s="70"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="70" t="s">
+        <v>290</v>
+      </c>
+      <c r="I5" s="73"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
+      <c r="W5" s="70"/>
+      <c r="X5" s="70"/>
+      <c r="Y5" s="70"/>
+      <c r="Z5" s="70"/>
+      <c r="AA5" s="70"/>
+      <c r="AB5" s="70"/>
+      <c r="AC5" s="70"/>
+      <c r="AD5" s="70"/>
     </row>
     <row r="6" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
@@ -8748,7 +8776,7 @@
   <customSheetViews>
     <customSheetView guid="{702A2F81-BF0C-45E0-AA45-1F83839C685D}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A4:AD231" xr:uid="{DECF22A7-4AEB-48B8-A944-57DD23D3B305}"/>
+      <autoFilter ref="A4:AD231" xr:uid="{1F84AAC0-E765-4F8C-BA87-DE7E1967084D}"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
           <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="267418258"/>
@@ -29797,7 +29825,7 @@
       <c r="C1" s="46" t="s">
         <v>263</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="65" t="s">
         <v>264</v>
       </c>
       <c r="E1" s="57"/>
@@ -29831,7 +29859,7 @@
       <c r="E2" s="46" t="s">
         <v>271</v>
       </c>
-      <c r="F2" s="69" t="s">
+      <c r="F2" s="66" t="s">
         <v>272</v>
       </c>
       <c r="G2" s="57"/>
@@ -29843,7 +29871,7 @@
       <c r="A3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="66" t="s">
         <v>273</v>
       </c>
       <c r="C3" s="57"/>
@@ -29886,19 +29914,19 @@
       <c r="J4" s="50"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="63"/>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="65"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="64"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="68" t="s">
         <v>283</v>
       </c>
       <c r="B6" s="57"/>
@@ -29912,7 +29940,7 @@
       <c r="J6" s="61"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="68" t="s">
         <v>284</v>
       </c>
       <c r="B7" s="57"/>
@@ -29926,7 +29954,7 @@
       <c r="J7" s="61"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="69" t="s">
         <v>285</v>
       </c>
       <c r="B8" s="57"/>
@@ -29956,7 +29984,7 @@
       <c r="Z8" s="52"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="60"/>
+      <c r="A9" s="69"/>
       <c r="B9" s="57"/>
       <c r="C9" s="57"/>
       <c r="D9" s="57"/>
@@ -29984,7 +30012,7 @@
       <c r="Z9" s="52"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="68" t="s">
         <v>286</v>
       </c>
       <c r="B10" s="57"/>
@@ -29998,7 +30026,7 @@
       <c r="J10" s="61"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="62"/>
+      <c r="A11" s="68"/>
       <c r="B11" s="57"/>
       <c r="C11" s="57"/>
       <c r="D11" s="57"/>
@@ -30010,19 +30038,19 @@
       <c r="J11" s="61"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="63"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="65"/>
+      <c r="A12" s="67"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="64"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="68" t="s">
         <v>287</v>
       </c>
       <c r="B13" s="57"/>
@@ -30036,7 +30064,7 @@
       <c r="J13" s="61"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="66" t="s">
+      <c r="A14" s="60" t="s">
         <v>288</v>
       </c>
       <c r="B14" s="57"/>
@@ -30050,16 +30078,16 @@
       <c r="J14" s="61"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="67"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="65"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="64"/>
       <c r="K15" s="53"/>
       <c r="L15" s="53"/>
       <c r="M15" s="53"/>

--- a/Duto Sheets.xlsx
+++ b/Duto Sheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goss\AppData\Roaming\MetaQuotes\Terminal\3212703ED955F10C7534BE8497B221F4\MQL4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357F547A-B574-4D76-B20F-A710ACF8685C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9DB11C-51F5-4001-A236-8ABCD8F787B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-8430" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="293">
   <si>
     <t>Sale Miner</t>
   </si>
@@ -924,6 +924,12 @@
   <si>
     <t>Improve the visibility of the deltac.  It is often hidden.</t>
   </si>
+  <si>
+    <t>need to handle wild changes in prices.  See nas 100 at 28may24 17:15.</t>
+  </si>
+  <si>
+    <t>strategy that kicks off when 5 minute plots 2-4 cahnge btwen dark and bright?</t>
+  </si>
 </sst>
 </file>
 
@@ -1221,7 +1227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1348,6 +1354,19 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1376,19 +1395,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="1" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1611,7 +1620,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1645,10 +1654,10 @@
         <v>2</v>
       </c>
       <c r="F1" s="1"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -1687,10 +1696,10 @@
       <c r="F2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
@@ -1796,53 +1805,59 @@
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
     </row>
-    <row r="5" spans="1:30" s="74" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="70">
+    <row r="5" spans="1:30" s="58" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="54">
         <v>1</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="71">
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55">
         <v>45453</v>
       </c>
-      <c r="F5" s="70"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="70" t="s">
+      <c r="F5" s="54"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="54" t="s">
         <v>290</v>
       </c>
-      <c r="I5" s="73"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="70"/>
-      <c r="T5" s="70"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
-      <c r="W5" s="70"/>
-      <c r="X5" s="70"/>
-      <c r="Y5" s="70"/>
-      <c r="Z5" s="70"/>
-      <c r="AA5" s="70"/>
-      <c r="AB5" s="70"/>
-      <c r="AC5" s="70"/>
-      <c r="AD5" s="70"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="54"/>
+      <c r="W5" s="54"/>
+      <c r="X5" s="54"/>
+      <c r="Y5" s="54"/>
+      <c r="Z5" s="54"/>
+      <c r="AA5" s="54"/>
+      <c r="AB5" s="54"/>
+      <c r="AC5" s="54"/>
+      <c r="AD5" s="54"/>
     </row>
     <row r="6" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
+      <c r="A6" s="6">
+        <v>2</v>
+      </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="18"/>
+      <c r="E6" s="75">
+        <v>45456</v>
+      </c>
       <c r="F6" s="6"/>
       <c r="G6" s="18"/>
-      <c r="H6" s="6"/>
+      <c r="H6" s="6" t="s">
+        <v>291</v>
+      </c>
       <c r="I6" s="19"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
@@ -1874,7 +1889,9 @@
       <c r="E7" s="18"/>
       <c r="F7" s="6"/>
       <c r="G7" s="18"/>
-      <c r="H7" s="6"/>
+      <c r="H7" s="6" t="s">
+        <v>292</v>
+      </c>
       <c r="I7" s="19"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
@@ -8776,7 +8793,7 @@
   <customSheetViews>
     <customSheetView guid="{702A2F81-BF0C-45E0-AA45-1F83839C685D}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A4:AD231" xr:uid="{1F84AAC0-E765-4F8C-BA87-DE7E1967084D}"/>
+      <autoFilter ref="A4:AD231" xr:uid="{11F1679F-180F-4ABD-A3E8-D1C51B36F957}"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
           <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="267418258"/>
@@ -8808,29 +8825,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="56"/>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
+      <c r="A1" s="61"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
       <c r="X1" s="20"/>
       <c r="Y1" s="20"/>
       <c r="Z1" s="20"/>
@@ -16952,10 +16969,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="55"/>
+      <c r="B1" s="60"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
@@ -18318,32 +18335,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="59"/>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
+      <c r="A1" s="64"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
@@ -29825,11 +29842,11 @@
       <c r="C1" s="46" t="s">
         <v>263</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="70" t="s">
         <v>264</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="61"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="66"/>
       <c r="G1" s="46" t="s">
         <v>265</v>
       </c>
@@ -29859,23 +29876,23 @@
       <c r="E2" s="46" t="s">
         <v>271</v>
       </c>
-      <c r="F2" s="66" t="s">
+      <c r="F2" s="71" t="s">
         <v>272</v>
       </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="61"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="66"/>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="71" t="s">
         <v>273</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="61"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="66"/>
       <c r="E3" s="49" t="s">
         <v>274</v>
       </c>
@@ -29914,58 +29931,58 @@
       <c r="J4" s="50"/>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="67"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="64"/>
+      <c r="A5" s="72"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="69"/>
     </row>
     <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="73" t="s">
         <v>283</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="66"/>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="73" t="s">
         <v>284</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="66"/>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="74" t="s">
         <v>285</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="61"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="66"/>
       <c r="K8" s="52"/>
       <c r="L8" s="52"/>
       <c r="M8" s="52"/>
@@ -29984,16 +30001,16 @@
       <c r="Z8" s="52"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="69"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="61"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="66"/>
       <c r="K9" s="52"/>
       <c r="L9" s="52"/>
       <c r="M9" s="52"/>
@@ -30012,82 +30029,82 @@
       <c r="Z9" s="52"/>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="73" t="s">
         <v>286</v>
       </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="61"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="66"/>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="68"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="61"/>
+      <c r="A11" s="73"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="66"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="67"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="64"/>
+      <c r="A12" s="72"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="69"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="73" t="s">
         <v>287</v>
       </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="61"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="66"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="65" t="s">
         <v>288</v>
       </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="61"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="66"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="62"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="64"/>
+      <c r="A15" s="67"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="69"/>
       <c r="K15" s="53"/>
       <c r="L15" s="53"/>
       <c r="M15" s="53"/>
